--- a/data/hotels_by_city/Dallas/Dallas_shard_248.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_248.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="824">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Kathie K</t>
+  </si>
+  <si>
     <t>05/29/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>mshapiro99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r557382309-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>Arrived for School of Music Audition Day for North Texas University in Denton, TX. Checked in with no trouble, and found room to be perfectly clean ... no complaints. The beds were comfortable and firm, and the temperature was easily controlled. The TV worked well, as did the internet. The breakfast was plentiful and tasty, and we were able to get on with our day easily. I'd stay at this property again.More</t>
   </si>
   <si>
+    <t>DukeP31</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r545168863-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>erroron r</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r544692631-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -249,6 +261,9 @@
     <t>The woman with the dyed orange ish hair is lame .they gave me an extra stay for free since I arrived so late . But when I needed an key card  replacement  all of a sudden they make me pay for that night . Wtf really  ? Hella toying with my emotions . That lady was hella cold blooded . More</t>
   </si>
   <si>
+    <t>BoyMommax2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r540463534-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -267,6 +282,9 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>fischman44</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r539223064-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -285,6 +303,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>Roy A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r532012167-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -303,6 +324,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>David P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r522974497-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -324,6 +348,9 @@
     <t>I travel all over the US for the majority of the year and stay at a plethora of different hotels. Many have advantages and special amenities. This hotel is, by far, one of the cleanest and well maintained that I have had the pleasure to reside at! •	Spacious rooms•	Fantastic beds!•	The breakfast is fresh and tasty•	The pool is a bit small, but it was enjoyable and clean•	The A/C works great!•	The housekeeping staff (Irma) made extra efforts to adorn the linens and tissues like a 5 star hotel would (NICE!)•	The floors are very cleanAnd much appreciation for the welcome treatment that the staff and management gave to all of our team members. Special thanks and appreciation goes, particularly, to Vanessa and Corette, who assisted in booking additional reservations for me at another property on very short notice! These folks know what customer service is and they excel at it! From the staff to the carpets, this Fairfield property is extremely nice! Thank you, all for a wonderful and restful stay! DavidMore</t>
   </si>
   <si>
+    <t>RobertBabb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r521533120-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -345,6 +372,9 @@
     <t>We stayed at the Fairfield Inn and Suites Denton for a full week while Hurricane Harvey rained down on Houston and the Gulf Coast.  The Entire Staff was gracious and kind and very helpful to us all week long.Leslie Albrecht The General Manager was fantastic- she has a staff that is second to none. Special thanks to Rohan and Corette from the front desk who always went above and beyond our expectations Also thanks to the entire front desk staff- all of them terrific.  We were also very pleased with  the housekeeping staff and the breakfast crew.  By the way the location of the hotel is great with a shopping center close by and places to eat within walking distance.( The Cracker Barrel  is right in front of the building). The beds were comfortable and the TV was big and new and had a great variety of channels.  Thanks for everything!More</t>
   </si>
   <si>
+    <t>soccermomof4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r512927078-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -360,6 +390,9 @@
     <t>Very easy access to I-35!  Literally, right there.We were in town for a college tour at Texas Woman's University.  It was about a 15 minute ride to campus from the hotel.Check-in was quick and easy with a wonderful staff person at the helm.  Our room was large enough to fit all 6 of us, but we only had 3 this times.  The decor is pretty neat.  Bathroom was well ventilated and had a great shower head.  Breakfast was good.  They even had vegan breakfast sausage.  The coffee had good flavor, which is very important to us, and was extremely hot!</t>
   </si>
   <si>
+    <t>Jackie P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r512022017-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -384,6 +417,9 @@
     <t>We have stayed at this motel a dozen plus times.  Our parents are in a retirement center here in Denton and this is where we stay when we come to town to visit.  We have stayed at the others and there is no comparison. The Best Western is nasty and the LaQuinta is worse. With that being said. It's not 5 star.  Only stay on top floor otherwise it sounds like elephants are above you.  Stay away from the elevators.  It's so noisy.  Do not stay in room 216. It's right above the lobby entrance and extremely noisy. For Denton - I think it's the best option.  Just be picky about your room selection.  Very friendly and accommodating staff. More</t>
   </si>
   <si>
+    <t>jergmar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r503233614-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -402,6 +438,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>texasflower82</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r485464793-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -420,6 +459,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>JavaAlii</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r471274098-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -438,6 +480,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>jessjjmc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r470989701-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -453,6 +498,9 @@
     <t xml:space="preserve">The Bed was soft but pillows were not. AC was great when it was working but it kept doing that on/off thing so we froze and then we would sweat all night. Room was quiet and clean. Workout room was good.   Location was central and within walking distance to many eating and shopping places. </t>
   </si>
   <si>
+    <t>Zamigaos</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r453002305-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -474,6 +522,9 @@
     <t>We were passing through on a trip up I-35 to see family and stopped about 8pm without a reservation.  No problem getting a room on the top floor, away from the elevator - which is usually quieter.  We asked for a room away from the road noise and didn't hear much of anything all night.  The staff was fine - not overly friendly or helpful.  We had a king suite and it had tons of room.  You could tell it was a bit dated, but overall clean and seemed to be well kept.  Separate fridge/microwave area with a couple bottles of water. A large sitting area with TV.  And, a separate bedroom/bath.  We could really stretch out and relax after being on the road all day.  Breakfast was good, slightly better than your typical hotel of this level.  The selection was good with eggs and sausage, as well as a waffle maker, fruit, cereals, and lots of breads/sweets.  Staff seemed to keep things full and tables clean. We did not check out pool or exercise area.  We would stay here again, but would be easier when construction is done in the area.More</t>
   </si>
   <si>
+    <t>Patti S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r442711883-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -492,6 +543,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>S T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r436160813-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -513,6 +567,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Midwife87505</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r433973420-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -528,6 +585,9 @@
     <t>Comfortable, very clean, friendly, convenient. Quiet, surprisingly,  given road construction nearby. Has exercise room, indoor pool, and breakfast.  Bottled water and coffee maker in the room. Clean bathroom and tub. Comfortable bed. Nice sittiNV area with sofatable, desk, lamps, and big TV. Staff could not be nicer or more efficient. Signage does say only seeing eye dogs permitted, which shouldn't be so specific; I didn’t bring a service animal, and didn't clarify.</t>
   </si>
   <si>
+    <t>Tally4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r429802051-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -555,6 +615,9 @@
     <t>pros- Next to Braums. :)- Small indoor pool.neutral- Breakfast is ok. It's about like any other American chain hotel breakfast.cons- We repeatedly saw small roaches in the bathroom.- The phone in our room didn't work. Every morning I reported it and they said it would be fixed that day, and every evening it was still not working.- The TV didn't always work, or some channels worked while others (that had previously worked) did not.- The rooms aren't really soundproof. We could easily hear people talking in the hallway, people talking loudly outside and the tv in the room next door.- Something in the room, I suspect the bedding, really bothered my allergies. I have never had problems in a hotel room before.- Cleaning staff took the used soaps from the bathroom and didn't replace them, over 5 days.More</t>
   </si>
   <si>
+    <t>Amariarin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r403047505-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -573,6 +636,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>Travelinggranny96</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r385955590-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -588,6 +654,9 @@
     <t>2nd time we have stayed for a grandson's graduation.  Always very clean, comfortable beds and good breakfast. Rooms are large if you have extra family members with you. Suites are extra nice, especially if you have small children. There is a living area where adults can watch a movie. Staff was very helpful. Will stay again soon.</t>
   </si>
   <si>
+    <t>Kenneth R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r380048847-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -609,6 +678,9 @@
     <t>A very nice hotel. Beds were very comfortable, the room was clean, the internet worked reasonably well &amp; the breakfast was decent. One staff member, Leslie (the name on her tag) caused this review to be 4 stars rather than 5. When we checked in, it was raining heavily &amp; there were 2 cars under the covered entrance which left no room for another so I got out in the rain &amp; ran in. Leslie &amp; another lady were standing in the lobby chatting. When she finally saw me standing by the desk, she came over &amp; check-in went smoothly. Rather than unloading &amp; getting our luggage soaked, we went to dinner. Over an hour later, we returned to find 1 of those cars still parked in the entrance. We unloaded the car &amp; came in. Another front-desk person, Briena, greeted us. Very friendly, nice young lady who made us feel welcome. After parking my car, I returned thru the lobby and Leslie walked in from a hallway. The offending car had been there for at least 1 1/2 hours and other guests were checking in soaked since they had to be in the rain too so I asked Leslie if she knew whose car that was since it was pretty rude to block the covered area for so long. She said it was her car and she just hadn't had time to leave the front desk to move it....A very nice hotel. Beds were very comfortable, the room was clean, the internet worked reasonably well &amp; the breakfast was decent. One staff member, Leslie (the name on her tag) caused this review to be 4 stars rather than 5. When we checked in, it was raining heavily &amp; there were 2 cars under the covered entrance which left no room for another so I got out in the rain &amp; ran in. Leslie &amp; another lady were standing in the lobby chatting. When she finally saw me standing by the desk, she came over &amp; check-in went smoothly. Rather than unloading &amp; getting our luggage soaked, we went to dinner. Over an hour later, we returned to find 1 of those cars still parked in the entrance. We unloaded the car &amp; came in. Another front-desk person, Briena, greeted us. Very friendly, nice young lady who made us feel welcome. After parking my car, I returned thru the lobby and Leslie walked in from a hallway. The offending car had been there for at least 1 1/2 hours and other guests were checking in soaked since they had to be in the rain too so I asked Leslie if she knew whose car that was since it was pretty rude to block the covered area for so long. She said it was her car and she just hadn't had time to leave the front desk to move it. That was nonsense since Briana was there being friendly &amp; efficient &amp; it wasn't so busy she couldn't be gone for 2 or 3 minutes, but I let it go. My room happened to overlook the hotel front so I could see her car still parked there until 8:00pm, at least 2 hours that I can personally confirm. I found it extremely rude and self-centered for a staff member to force customers to unload in the heavy rain just so she didn't have to get wet.More</t>
   </si>
   <si>
+    <t>ardy12016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r367966887-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -627,6 +699,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>WildermereBeach</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r356754866-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -645,6 +720,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>Jerry P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r352741431-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -663,6 +741,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>Jenny H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r344733346-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -678,6 +759,9 @@
     <t xml:space="preserve">Perfect stop over,  love the Marriott bedding! Very clean, typical but FREE hot breakfast. And FREE bottled water in the rooms!  We'll be back,  no doubt, traveling often from Houston to Wichita - great stop of you don't want to make the full drive ! </t>
   </si>
   <si>
+    <t>Linda C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r344590758-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -693,6 +777,9 @@
     <t>This hotel was perfect in every way (and that isn't an easy rating to get from me--I'm picky, especially about cleanliness). They had construction going on so during the day there was some disruption. But the room was perfectly clean, everything worked, and the bed was very comfortable. I will stay there on every trip to the Dallas area.</t>
   </si>
   <si>
+    <t>TX13SR13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r342415614-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -711,6 +798,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>Christy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r339151817-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -732,6 +822,9 @@
     <t>This was our 2nd visit and as always, our room was very clean.  The beds are not super comfortable but this is a standard room and we used our Marriott rewards points to stay here.  This was my first time here to eat the breakfast and it was subpar.  The rooms here have a basic tv with limited channels and there is no guide on the remotes so you have to search for your favorite channels. However, overall the staff were very accommodating (we needed and were given the option for a later checkout), and for one night's stay this is a very decent place.  There is a Cracker Barrel restaurant within walking distance so that is a definite plus. *Tip*ask for a 3rd floor room away from the traffic.  More</t>
   </si>
   <si>
+    <t>TravelinGert</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r338157015-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -750,6 +843,9 @@
     <t>We booked a couple of suites for a weekend night in the middle of December for our family Christmas. We didn't realize it, but we booked for Graduation weekend at one of the colleges. The hotel was completely full, as was everything else in town. Despite the crowds our rooms were quite, clean, and we got top notch treatment by the desk clerk. I wish I remembered the lady's name. She had short red hair and she was just so very kind and professional! Breakfast was tasty and plentiful. Needless to say we were exceptionally impressed. We've always liked Fairfield Inns, but the service was really above and beyond even on what was obviously a very busy weekend for this hotel. We'll be back again for our next family gathering.More</t>
   </si>
   <si>
+    <t>Cooperton</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r336792816-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -768,6 +864,9 @@
     <t>We have stayed this property multiple times in the past three years.  We keep coming back because we know we will have a good stay while we are here.  I think it is great the property is getting an face lift.  We did have a scaffold outside our window during out two day stay and there was some noise during the day but it was not too bad.  There is also a notice in the window when we come in warning us in advance which I thought was nice.  Another big plus is the comfy beds.  It is also located in walking distance to a Braums, a Cracker Barrel, and some other fast food places.  Very convenient.  There is also a Wal-mart nearby.  It is very close to I-35 and is easy off and on the interstate if you are traveling. The kids enjoyed using the pool.  We look forward to coming back.More</t>
   </si>
   <si>
+    <t>brianbryant71</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r333847304-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -783,6 +882,9 @@
     <t xml:space="preserve">My daughter and I were here for a horse show in Krum. Very clean and comfortable. There was some construction going on and parking was at a premium but other than that we never knew work was being done. The beds and accommodations were great. We were with a group and had some billing issues which were resolved and handled very professional. Would definitely stay again. </t>
   </si>
   <si>
+    <t>GGTravels02</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r331795411-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -798,6 +900,9 @@
     <t xml:space="preserve">This was a great property, nice and clean. The service was great, everyone was helpful and courteous. The room was nice and clean. The only thing that was missing are plug in ports at the nightstand. I would recommend this hotel property to anyone traveling. </t>
   </si>
   <si>
+    <t>Robert W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r325669491-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -819,6 +924,9 @@
     <t>Worst customer service ever!Had some really noisy people next to me so when I went to complain they offered to move me?I asked why not move them? Apparently they had complaints against them in the past so the staff knew these people were a  problem but were protected by the manager. So I decided to check out but they couldn't give me a cancellation document. When I insisted because after all we put men on the moon almost 50 years ago they became abusive and threatened to call the police if I wouldn't leave. I saved them the time and called them myself! Stayed in the Best Western next door. Still don't have the cancellation, time to call the credit card company!!!More</t>
   </si>
   <si>
+    <t>Carl S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r310721650-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -840,6 +948,9 @@
     <t>We have stayed at this Fairfield Inn numerous times on our drives from KS to Austin and always enjoy our stay. This property is not one of the older Fairfield Inns--it has the newer lobby/breakfast room combination that we enjoy. But it could use some brightening of the color scheme in the rooms. Breakfast is typical Fairfield Inn--good variety, including the Marriott cooked oatmeal that we enjoy. The personnel are most accommodating and "bright"--college students, I think. And everything is quite clean.Very convenient to Braum's, Cracker Barrel, Sam's and Walmart.Two things: the Best Western to the south is built right up against the Fairfield Inn, so very little light comes into a room's windows on the south side of the hotel. Be sure and ask for a room on the north side. Also, much of the lighting in the external signage on the building was burned out when we were there in early Sept. The signage really should be kept in better shape. One might think they are driving up to an abandoned hotel otherwise.More</t>
   </si>
   <si>
+    <t>Newman019</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r308691825-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -858,6 +969,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>Al M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r288331701-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -874,6 +988,9 @@
   </si>
   <si>
     <t>July 2015</t>
+  </si>
+  <si>
+    <t>jmullins762</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r285431314-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
@@ -914,6 +1031,9 @@
 Things I asked the front desk for and got a very quick response. The light in the bathroom, bulb needed to be replaced, the phone by the bed was...I had high hopes for this hotel based on a previous stay at another Fairfield Inn and Suites. I have to say, I was somewhat disappointed. The positive: the room had a refrigerator, microwave, coffee maker. The bath amenities were of good quality. The bed was fairly comfortable, but not as comfortable as  I had hoped for. The breakfast was of  a good quality and included a variety of foods.  Proximity to food-within walking distance (across the parking lot) is a Braum's, McDonald's and Cracker Barrel. The staff was responsive and accomodating. The business center. I was able to print out my boarding passes for our flights home with no problem. The small "market" area in the lobby. Convenient for drinks, food, and other needed items.The lobby, breakfast area and seating areas. Decorated nicely and inviting. The negatives: roomo decor-I was hoping for a room that was a bit more updated in style. It just didn't compare to the room we had at the same brand hotel in San Antonio/Schertz area, The view from our room-we had a room on the side of the hotel facing the Best Western-right next door! The curtains had to be closed for privacy, due to the close proximity of the rooms in that hotel. Things I asked the front desk for and got a very quick response. The light in the bathroom, bulb needed to be replaced, the phone by the bed was not working (the one on the desk did), More coffee packets.Our room was not serviced during the day. We had a do not disturb sign out, but took it off the door when we went to the lobby to  wait for the room to be cleaned. We went back and the room was cleaned so we went sightseeing in town. We came back and the room was still not serviced. I didn't mind the towels not beeing replaced, but we would have preferred the bed to be made. As I said, as a result of the room not being serviced, I had to ask for more coffee packets for the next morning's coffee while getting ready. I would recommend this hotel, but be aware t hat you might need to ask for things. I would stay here again. More</t>
   </si>
   <si>
+    <t>Diane B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r277416502-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -932,6 +1052,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>Carolyn D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r275498611-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -950,6 +1073,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>sara l</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r274934706-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -963,6 +1089,9 @@
   </si>
   <si>
     <t>usually stayed at the best western in front... cant say why .. ease of access I guess. turned out BW didn't have any military discount rooms available.... so I came to Marriott.... should never have ever left... I'll never stay elsewhere in denton. great front desk... free laundry room.. which I sorely needed. cant say enough about how comfortable and clean the rooms are. and the breakfast is great...</t>
+  </si>
+  <si>
+    <t>cdmas93</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r267519159-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
@@ -988,6 +1117,9 @@
 Overall - it was a mediocre hotel and I would have definitely expected more...I stayed here with my son on 8/20/15.  We were in town for a college visit.  I try to stay at Fairfield Inns when available because they are usually a home run for me and service is great.  I checked in that afternoon and was not welcomed the way I normally am at a Fairfield.  I gave my name and was given my keys and that was it.  I was shocked when I was given room 310 - right next to the elevators and the ice machine.  Really?!  I checked in around 5 and the hotel was nowhere near capacity and was given this room out of all of them?!  Yes - I could have requested another, but was so tired it wasn't worth it - but the noise was quite loud.  My big problem with the room was that the refrigerator was quite loud and the drawers of the dresser would not stay in place.  I must have pushed them in 10 times during my stay - even hitting my leg in the middle of the night on them.  They just continually rolled out.  Also - the lack of outlets in the room was crazy.  The only outlet near the beds was behind the nightstand and we had to unplug the clock to use it.  Update the outlet situation!  Breakfast was the standard Fairfield breakfast. Overall - it was a mediocre hotel and I would have definitely expected more from a Fairfield.More</t>
   </si>
   <si>
+    <t>Christinaleek75</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r266423282-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1003,6 +1135,9 @@
     <t xml:space="preserve">This is the most guest oriented staff I have ever encountered. If you want top notch service and a comfortable place to stay do not pass this place by. The beds are comfy. The bathroom is spacious. There are several rooms for guest with disabilities no matter what your barrier may be. The housekeeping is very friendly. There is a very nice free hot breakfast every morning. Nice large TVs in every room with great channel selection. </t>
   </si>
   <si>
+    <t>Brian W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r260556920-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1042,6 +1177,9 @@
     <t>This appears to be a fairly new property. It is in excellent physical shape--we did not find anything about the facility that did not work as it was supposed to work. The HVAC was quiet and the thermostat worked properly. The bed was most comfortable!! The linens were high quality. Everything was quite clean. It was a most enjoyable stay.Unfortunately, we did not have a chance to enjoy the breakfast. We got up about 7:30am and turned on the TV and learned that a blizzard was headed toward Ft. Worth from the SW. We were planning to drive south on I-35W. So, we skipped breakfast and did not even comb our hair. Loaded our van and headed south but ran into the snow after about 15-20 minutes. Took us 4 hours to get the 120 miles to Waco but fortunately no crash!!The staff was just most gracious. This will be our home the next time we stop in Denton.More</t>
   </si>
   <si>
+    <t>Melody M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r257871514-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1057,6 +1195,9 @@
     <t>My grandson and I had to stop here, unexpectedly, during the recent winter storm. I can't even begin to describe how welcoming, and helpful, every single member of the staff was! The king suite room was very nice and super-clean. The breakfast was excellent, and there was a good selection of food items for purchase, which could be prepared in the in-room microwave.The weather was too bad to go out, but there were several restaurants, (including Cracker Barrel), in walking distance, and easy access to two freeways.I would recommend this hotel to anyone and everyone who appreciates an attentive staff and personalized service!!</t>
   </si>
   <si>
+    <t>alltravellvr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r255917262-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1075,6 +1216,9 @@
     <t>One of the nicer Fairfield Inns I've stayed in.  Property seemed very clean and well-maintained, and interior spaces were attractively designed.  Nice bedding and abundance of pillows, room ac and heat unit were quiet and worked very well.  Breakfast had scrambled eggs, biscuits and gravy, waffles, and oatmeal for hot offerings, along with other standard continental choices.  Day 1 front desk person, eh, but day 2, Debbie, was very helpful and friendly.  We were disappointed whirlpool wasn't working; a sign at the desk would have been nice as opposed to working timing around open hours, changing, and going down, to find sign on door.  Good location just off highway, enough to be quiet, near gas station and wal-mart.  As stated already, we could see hotel but weren't quite sure best place to turn in.  Would highly recommend and readily stay again.More</t>
   </si>
   <si>
+    <t>ChrisF7093</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r235533032-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1096,6 +1240,9 @@
     <t>Pros:The hotel overall was pleasant.  The guest services were very professional and helpful.  The room and eating area was clean and decorated nicely.  There was a good selection of food at breakfast.  Plenty of clean towels at the pool.Cons:The pool was a little too cool and there was only 1 highchair available for the entire breakfast area and no booster seats.  This made for a difficult breakfast as I had 2 little ones.  Also, there was no fitted sheet for the sofa bed, only 2 flat sheets and once the sofa bed was opened up, it was directly in front of the air conditioner.  There were no appropriate TV channels for kids under 5; no Sprout, Disney Jr. or Nick Jr.More</t>
   </si>
   <si>
+    <t>fastrunningmom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r235458974-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1114,6 +1261,9 @@
     <t>Stayed here one night last week.  The hotel is tucked back from the road- and might be difficult to find in the dark, however we had read it was near a Cracker Barrel so pulled off when we saw the Cracker Barrel sign from the road. We liked our suite a lot.  While small, we appreciated the sitting area with flat screen TV and the comfortable beds in the adjoining bedroom, which also had a flat screen TV - we could each watch our choice of program. The decor was updated and modern. The bathroom was large and well stocked.  In the morning, a free breakfast was provided, and was above average in comparison to other free hotel breakfasts we have had. There were many choices - eggs and sausage in chafing dishes, fresh fruit, cereal, bagels, make-your-own waffles, juice and coffee!  Nice!  If you are visiting Denton, this is a mid range, comfortable hotel to stay in.More</t>
   </si>
   <si>
+    <t>TravelinBuckI</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r232696200-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1129,6 +1279,9 @@
     <t>Stayed here four or five times over the last 2 years. Some of the greatest staff make staying in a value product an enjoyable experience.  Great location for visiting TWU. Thanks for a consistently good experience</t>
   </si>
   <si>
+    <t>sbkane</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r232545062-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1144,6 +1297,9 @@
     <t>Stayed two nights, on reservation I asked for early check in and they were ready!  Waited 5 minutes in lobby at 11:30 AM and they processed me quickly. Breakfast was standard buffet fair and fresh. Used the jacuzzi and pool, indoor, clean and nice. Did not use workout room, but it was well appointed. Did make use if wifi (free) and hotel computer to look up local attractions to burn some time before the evening wedding. All in all, would not hesitate to stay again. Marriott is always reliable</t>
   </si>
   <si>
+    <t>Bob S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r232524795-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1168,6 +1324,9 @@
     <t>I rented three rooms for two nights.The hotel has a pungent musty smell in the lobby and especially in the elevator. The premium tv channels did not work. Front desk said they couldn't determine the problem. The wireless service was a problem on my ipad. I connected to the hotel next door.More</t>
   </si>
   <si>
+    <t>filmbuffintexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r232289994-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1186,6 +1345,9 @@
     <t>Frankly, this wasn't my first choice for a hotel in Denton since my first choice was fully booked.  I  did think that it did really work out for the best after all. The room was very clean and comfortable.  The staff was great and the location was very close to Interstate 35.  I also appreciated the fact that even though we were late to their complimentary hot continental  breakfast, they made sure that there was enough food for everyone.  Also, as a Marriott Rewards member, I appreciated their giving me my room request on the upper floor even though I was late in arriving.  I also appreciate the little things that the staff does to ensure that their guests have a comfortable stay.  I loved having several types of cookies available at check in as well as carafes of coffee and iced lemon water available in the lobby 24/7.  We regretted that we didn't have enough time to take advantage of the heated indoor pool and whirlpool as well as the exercise room since there is so very much to do in Big D.Directions to the Fairfield Inn &amp; Suites in Denton:Take Interstate 35 North (Exit 469) to University DriveStay on access road through first stop light and enter right at Cracker Barrel restaurant.More</t>
   </si>
   <si>
+    <t>amyz2003</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r231220209-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1201,6 +1363,9 @@
     <t>We stayed for two nights and were very satisfied.  The staff was friendly and the King one bedroom was very adequate with an adjoining living room with desk and TV.  The staff was friendly especially the man who makes sure everyone is enjoying their breakfast.  He met our every need.  Thanks!</t>
   </si>
   <si>
+    <t>Jacy R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r230581995-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1228,6 +1393,9 @@
     <t>We've stayed here several times and haven't really had any major complaints. Its clean for the most part. Its in need of a remodel and update but I know some of the updating has been done but I haven't had an updated room just yet. The room is avg size but big enough not to be crowded. The bedsni have had each time are harder then I would like but clean. The bathrooms are nice and clean and a good size too. Its close to the hwy and is easy to get to and from. There's a Walmart and Sam's close by and places to eat too. Its also only like 35 min to the casino. More</t>
   </si>
   <si>
+    <t>Donna J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r222897025-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1249,6 +1417,9 @@
     <t>Leslie, Debbie and "?Brianna?" The young lady that was cross training in the breakfast bar and front desk did an amazing job communicating with each guest. VERY impressive!!! The staff  are tops in customer service. It's like home away from home at this hotel. The team that works there go above and beyond. Every single person speaks to the guests. What a warm feeling. The rooms are immaculate, the breakfast bar is kept tidy even during the busiest times the food is replenished and fresh. Coffee, tea and hot chocolate are available 24/7. Internet connection was never an issue, it was fast and easy to sign on. The 'office area' in the lobby has two nice computers and printer. We can't say enough about the staff, they make you feel like family. Great location, many restaurants nearby. Perfect location for our visit.More</t>
   </si>
   <si>
+    <t>Barton S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r216903003-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1273,6 +1444,9 @@
     <t>Clean, comfortable, adequate accommodations. Friendly staff, free hot breakfast and wifi are a plus. Coffee available in the lobby all day is a nice touch too. Snacks available for purchase at the front desk. No onsite restaurant. Small fitness center and very small indoor pool. I'm not crazy about the single air conditioning unit near the window that's a bit noisy when is starts and stops. The room seemed too hot or too cold.Convenient to I-35, University of North Texas and Texas Women's University.  Plenty of shopping and restaurants near by, some even walking distance.More</t>
   </si>
   <si>
+    <t>Carol L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r216725459-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1288,6 +1462,9 @@
     <t>Starting with the courteous desk clerk and staff, through the clean and quiet room, it was a wonderful stay for tired travelers. The evening desk clerk recommended a local Mexican restaurant for our dining, and he hit it smack on the mark! It was a delightful end to a tiring day.</t>
   </si>
   <si>
+    <t>dontask94</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r214911321-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1306,6 +1483,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Matt B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r208419519-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1321,6 +1501,9 @@
     <t>My wife and I got a great deal through booking.com so the rate was great. Location wise fantastic.  Right off of 35 but you can't hear the traffic. Our room was on the end closest to the highway and we did not hear a thing. About a 5 to 10 minute drive to downtown where there is plenty to do.Next time we are in Denton or the local area we are staying there again</t>
   </si>
   <si>
+    <t>2x2ontheroad4u</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r207501172-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1342,6 +1525,9 @@
     <t>Have to admit, our first encounter with the young girl as we walked in the doorway, was not a complimentary one for Fairfield. She stood bundled in a sweater, in front of the fireplace, with a scowl on her face. We were a bother to her and it set the tone for the stay.  My wife mentioned to the manager, who apparently had received other complaints about her, yet they continued to keep her on (?!?). Other than the girl who obviously didn't want to be there, the stay was great.  The room was wonderful, breakfast was great, and the rest of the staff couldn't have been any kinder.  Sure hope they address this employee - not a great first impression.More</t>
   </si>
   <si>
+    <t>Spinnerbella</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r206793275-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1360,6 +1546,9 @@
     <t>I cannot say enough about the enjoyable experience my daughter and I had.  We had driven 6 hours and the hotel we had reservations at looked run down, the employees were unprofessional and the cheap looking hotel was not so cheap. We drove to the Fairfield Inn and right away felt a different atmosphere. The lady at the desk was more than happy to do her best to get me a good rate and had a room available.  This hotel was clean and all the employees for pleasant.  I of wish I could have gotten the same rate for my upcoming stay in the area in June.  But I will have to stay at a cheaper hotel .  But we very much enjoyed our experience More</t>
   </si>
   <si>
+    <t>TravellinDocs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r206383205-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1375,6 +1564,9 @@
     <t>Stayed here for 1 night in May 2014 and was very impressed. I frequent many Fairfield Inns and this property was well above the average Fairfield.  It was very clean and modern in style with very friendly staff.  The bed was exceptionally comfortable (I like a firm matress). The indoor pool and hot tub were clean and extremely relaxing. Breakfast selections were also better than at most Fairfields. Convenient location and plenty of parking. A great choice!!!</t>
   </si>
   <si>
+    <t>LindsayBaines</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r205813650-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1390,6 +1582,9 @@
     <t>As always, I chose a Fairfield because of their consistency and standard cleanliness.  This one is no exception.  Great service, clean rooms, good breakfast, and not lots of kids.  Perfect for my short business trip.</t>
   </si>
   <si>
+    <t>NYtraveler110</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r200873477-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1411,6 +1606,9 @@
     <t>Recently spent four nights at hotel during Final Four and NASCAR weekend.  Denton had just experienced one of their worst hail storms in history, but hotel managed to come through in time for the big crowds coming to the area.  Rates were higher than normal due to the special events, but at regular rates, the hotel offers a great value for travelers.  Recently remodeled on the inside, we found our room spacious and clean.  We had one of the larger "suites" with two double beds and living area with half wall, pullout couch and additional TV.  Beds were VERY comfortable but wish the lamp next to bed had outlet to charge iphone as in other hotels.(I think the lamp in the living area had an outlet).  Heard nothing from rooms on either side, but ceilings are too thin allowing one to hear every step of those pacing the floors above you!  Experienced this at another Fairfield Inn before so Marriott should correct this in future construction. We stayed on the second floor and in the future I would switch to the third floor to avoid this. On the second night I was able to just run the fan for "white noise" which solved this problem.  Staff was friendly and helpful when I needed help with printer in lobby.  Breakfast room was nice and offerings were plentiful such as waffle maker, yogurt, fruit salad, oatmeal, muffins, bagels and scrambled eggs and...Recently spent four nights at hotel during Final Four and NASCAR weekend.  Denton had just experienced one of their worst hail storms in history, but hotel managed to come through in time for the big crowds coming to the area.  Rates were higher than normal due to the special events, but at regular rates, the hotel offers a great value for travelers.  Recently remodeled on the inside, we found our room spacious and clean.  We had one of the larger "suites" with two double beds and living area with half wall, pullout couch and additional TV.  Beds were VERY comfortable but wish the lamp next to bed had outlet to charge iphone as in other hotels.(I think the lamp in the living area had an outlet).  Heard nothing from rooms on either side, but ceilings are too thin allowing one to hear every step of those pacing the floors above you!  Experienced this at another Fairfield Inn before so Marriott should correct this in future construction. We stayed on the second floor and in the future I would switch to the third floor to avoid this. On the second night I was able to just run the fan for "white noise" which solved this problem.  Staff was friendly and helpful when I needed help with printer in lobby.  Breakfast room was nice and offerings were plentiful such as waffle maker, yogurt, fruit salad, oatmeal, muffins, bagels and scrambled eggs and sausage patties (would have loved one day of bacon, but it was included in room rate so can't really complain).   Stores nearby and easy on/off I35.  I would return.More</t>
   </si>
   <si>
+    <t>John-in-Utah</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r196186717-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1429,6 +1627,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>KimN_WA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r195992945-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1474,6 +1675,9 @@
     <t>We stayed during an ice storm that literally shut down the city of Denton and I-35. The guest service was amazing! Management stayed at the hotel and worked along side every department to keep the breakfast going, the rooms cleaned and guests comfortable. The hotel is beginning renovation (yes, it's needed) but it was clean and comfortable. Every employee acknowledged us and all were friendly and helpful. The internet had no connection issues, despite the ice storm. The breakfast area is roomy and having a bar to plug in phones and laptops was a plus! The pool and hot tub looked inviting but there wasn't enough time to enjoy either. There's plenty of shopping and decent restaurants nearby.  I would recommend this hotel for the business traveler or family.More</t>
   </si>
   <si>
+    <t>Rick N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r188348666-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1492,6 +1696,9 @@
     <t>There are various plans for all Marriott hotels... In my opinion this Fairfield Inn is a miserable place to stay.  Someday hotel chains might want to take into consideration the construction design and materials.  This particular hotel maintains a 74 degree winter temperature in the rooms will absolutely dry you out.  If you turn on the air conditioning in the winter the compressor will freeze because of the outside air temperature then you have what sounds like an aircraft propeller test area.The floors about the room the walls between carry more noise than any place I have ever stayed.  There is nothing worse than having someone above you walking back and forth at 2 AM, the sound of an airplane at your window and kids banging on the wall next to you.  Find another place to stay!  I say that and I am a Marriott Rewards Member!Last time I stayed it was the ice machine across the hall that kept me awake.The walls and floors allow too much noise to pass!More</t>
   </si>
   <si>
+    <t>Jessumom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r180048213-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1519,6 +1726,9 @@
     <t>The hotel was clean, quiet, and the staff was courteous. However, I had booked and prepaid for my room on Priceline, as I am a single mom traveling on a budget. Unfortunately, this hotel charged my bank card for my room despite the fact that it was prepaid. Sadly, this happened to be the last $140 in my account. I was left without money for food or to travel home to my daughter. I am stuck here in Denton until my refund is credited to my card. I am told this will not happen until  late next week. I had budgeted carefully for my trip and this should not have happened to me. This has been a horrible experience that has left me in a desperate situation. Will never use Priceline or this hotel again.More</t>
   </si>
   <si>
+    <t>79101EA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r179921776-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1537,6 +1747,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>Mike0912</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r175886895-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1552,6 +1765,9 @@
     <t>Most Fairfields are cut from the same mold.....Clean, not too expensive, good staff, good beds and this one is no different. Would definitely recommend. Plus would be that within walking distance is a Sams Club, Cracker Barrel and McDonalds.</t>
   </si>
   <si>
+    <t>subwayrat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r173871505-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1570,6 +1786,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>Richard M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r162865720-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1597,6 +1816,9 @@
     <t>As a platinum Marriott member, I see a lot of hotels.  This particular location was rather a let down.  The front desk staff was somewhat unpleasant.  The big problem was in the room; under the bed was an old gatorade bottle, dirty socks (not mine) and giant dust bunnies...really disgusting.I would rather forego my points and status with Marriott then to stay here again.More</t>
   </si>
   <si>
+    <t>Marymillicent</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r160685130-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1612,6 +1834,9 @@
     <t>We picked this hotel because it was convenient to our trip north on I35. We got a good senior rate and could walk to Cracker Barrel. We had a first floor room. It was very nice. Large HDTV, premium channels, good wireless, clean, comfortable beds, good climate control. What more could you want?  Oh!  My husband says they need a stationery bike in the fitness room. :-)</t>
   </si>
   <si>
+    <t>Shirley N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r159734912-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1639,6 +1864,9 @@
     <t>As a part of the University of North Texas family we have stayed at this hotel many times over the last 5 years as it offered an affordable stay with clean rooms and friendly staff,  however, my viewpoint changed after last night's stay. As per my request I was assigned a first floor room (I had my elderly parent with me), but unknown to me there was a party scheduled in their conference room 5 doors down.  The party was complete with a loud DJ and music.  Party attenders flowed into the hallways and lobby yelling and screaming until after midnight.  The doors to the conference room were left open allowing all sound and party goers to disturb paying patrons into the late hours (after midnight). When I tried to go to the desk to ask that the doors be closed to eliminate the noise problem, there was no one at the desk. Finally, sometime after midnight I called the front desk to complain. I was told that they would be wrapping up shortly.  The second issue was parking, the party goers took all the parking from paying patrons.  I was left to park in a neighboring hotel parking lot and walk to Fairfield. Paying patrons should have first access to those parking places and not be forced to walk from another location. As a Marriott rewards member, I was very disappointed in how this situation was managed.  If I...As a part of the University of North Texas family we have stayed at this hotel many times over the last 5 years as it offered an affordable stay with clean rooms and friendly staff,  however, my viewpoint changed after last night's stay. As per my request I was assigned a first floor room (I had my elderly parent with me), but unknown to me there was a party scheduled in their conference room 5 doors down.  The party was complete with a loud DJ and music.  Party attenders flowed into the hallways and lobby yelling and screaming until after midnight.  The doors to the conference room were left open allowing all sound and party goers to disturb paying patrons into the late hours (after midnight). When I tried to go to the desk to ask that the doors be closed to eliminate the noise problem, there was no one at the desk. Finally, sometime after midnight I called the front desk to complain. I was told that they would be wrapping up shortly.  The second issue was parking, the party goers took all the parking from paying patrons.  I was left to park in a neighboring hotel parking lot and walk to Fairfield. Paying patrons should have first access to those parking places and not be forced to walk from another location. As a Marriott rewards member, I was very disappointed in how this situation was managed.  If I would have known at check in that this event was scheduled I would have requested an upper floor or simply moved to another hotel if the no other rooms would have been available. Management should have closed the doors to the room and requested party goers to not roam throughout the hallways of the hotel.  There are two outside doors to the conference that could have been opened if the room was too warm, but none of this was done.  It appeared there was no control over this party at all.  Thus, due to the fact that I had to leave early the next morning to get on the road I got about 5 hours of poor sleep.  Is this the new Marriott way of doing business??  If so, I think I will go to Hilton or Best Western Premier for future visits to Denton and as member of the UNT parent association, I would not recommend this hotel to UNT parents visiting their children.More</t>
   </si>
   <si>
+    <t>makoakani</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r155465836-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1657,6 +1885,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>The5Ps</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r152121375-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1673,6 +1904,9 @@
   </si>
   <si>
     <t>February 2013</t>
+  </si>
+  <si>
+    <t>RRichardson</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r150279313-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
@@ -1702,6 +1936,9 @@
 I don't have a single complaint or criticism about this hotel and really have to wonder about the negative comments made by others.  I would highly recommend this hotel to others and would not hesitate...I booked my room in Denton at Priceline and was somewhat concerned when I found out it was the Fairfield Inn because I had read several negative reviews about Fairfield.  Upon arrival, I was very pleasantly surprised to find a great room in a great hotel with friendly, competent service people.  For several years I was in charge of housekeeping at a Big Ten student union and a 1,200 room dorm that often functioned as a hotel.  So I know what to look for and I'm also quite picky.  From clean floors to curtains with no missing hooks, beautifully folded towels, in-room mini fridge and microwave, a big-screen TV, Paul Mitchell products and good lighting.  It was all there.  The hallways were clean and well maintained as was the spacious lobby with two computers with printers in the business center.  The inside pool wasn't large or deep, but my grandkids who came to visit sure had fun.  The breakfast was attractive and guests really seemed to enjoy making their own waffles.The location of the hotel wasn't especially great for me because of where my family lived.  But it is located near Texas Women's University, nearby shopping and within easy walking distance of several restaurants.I don't have a single complaint or criticism about this hotel and really have to wonder about the negative comments made by others.  I would highly recommend this hotel to others and would not hesitate to stay there again.  Really, there is nothing more I could have asked for.More</t>
   </si>
   <si>
+    <t>SunQyear</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r148471171-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1729,6 +1966,9 @@
     <t>We stay at Fairfields in all our travels.  For the first time, we experienced a front desk employee that was more interested in her phone conversation than in attending to customer (at 10:00 pm).  We were left with feeling that our requests and questions were an inconvenience and that we ought not to be asking/requesting such.  Elevator had horrible smell.  Bedside table drawers did not shut (even after trying to put items under front to re-balance) which was harmful when getting out of bed in middle of night and early morning.This was such an unusual experience for us at a Marriott Fairfiled - we have always had exceptional experiences.More</t>
   </si>
   <si>
+    <t>Tim C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r145960362-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1756,6 +1996,9 @@
     <t>Hotel Cheaply built. Has wooden floors. Can hear conversations from other areas of the hotel. Marriot has gone downhill on building this one. Room above had children. Thud! Thud! Thud! Front desk Lady- no help.Evening Clerk guy called the room, and tried to help. She has obviously delt with this problem too many times. Only stay on third floor to avoid this problem!More</t>
   </si>
   <si>
+    <t>Christine_sing</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r141413677-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1774,6 +2017,9 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>Bigmama3816</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r136436416-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1792,6 +2038,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>TX0810</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r136073041-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1810,6 +2059,9 @@
     <t>Denton Fairfield Inn is a good place to stay and receive great service from the staff. Stayed here 1 night for business and i am a satisfied customer and will be returning to this hotel in the future when in the area. Checkin was quick, very nice and helpfu front desk. The room was standard fairfield inn and clean, about right size room with separated sitting area couch looked like it was a pullout bed but did not test it. Kind bed was comfortable and air was cold. Did not try the free breakfast that they offered this time but it looked good. With traveling for work, i need a good wifi or even wired connection. Wifi at this hotel is very good and fast connection. This hotel is walking distance to several restaurants, grocery, and gas stations.More</t>
   </si>
   <si>
+    <t>M H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r134643357-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1825,6 +2077,9 @@
     <t>This is a fine hotel for the budget traveler, but I would not recommend staying here due to the property's serious sound issues.  We could hear each step the person took above us, and it interfered with any peace and quiet we hoped to have.  We could hear the sound of their footsteps over the droning of the air conditioner.  Management was attentive and awarded us extra membership points for our troubles, but that won't help the future, uninformed guest of what they're about to experience.</t>
   </si>
   <si>
+    <t>worldtraveller1287</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r130455134-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1843,6 +2098,9 @@
     <t>May 2012</t>
   </si>
   <si>
+    <t>KCalla</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r125868872-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1864,6 +2122,9 @@
     <t>Convenient to Interstate, gas stations, etc.  We are used to either feeling guilty about our breakfast choices at a hotel or limiting ourselves to fruit.  We were astonished to see a selection of Kashi single serve cereals available with the other options.  They also had single serves of fruit in their own juice.  Poured the fruit over the Kashi...what a satisfying and tasty breakfast.  I know, not sugar free...but that was not our goal.  We were so excited about this that we made it a point to stay at another Fairfield during our trip.  Sadly, while they had the fruit, they were either out of or did not stock the Kashi.  Darn.  I'll have to buy some to travel with.  Plenty of other breakfast options at both places, that folks were enjoying.  We will return to this property for the convenience, cleanliness, comfortable room and great breakfast options.More</t>
   </si>
   <si>
+    <t>bnsilly</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r124351115-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1882,6 +2143,9 @@
     <t>February 2012</t>
   </si>
   <si>
+    <t>Hixson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r119676093-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1898,6 +2162,9 @@
   </si>
   <si>
     <t>October 2011</t>
+  </si>
+  <si>
+    <t>Linda E</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r117668824-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
@@ -1923,6 +2190,9 @@
 In the foyer were bowls of apples and bananas and a jar of fruit-infused water. Around the corner near the elevator was a table set with hot coffee. Christian let us know that if we wanted to use the pool or exercise room, he would see to it that it remained open for us. And of course, the business center -- two computers -- was available to us. One man was using one of the computers while we were there and had trouble logging on. Christian hustled (he didn't exactly run, but he was moving fast) to his...We stayed at two Fairfield Inns the week we traveled and both met or exceeded expectations. With the cleanliness, room appointments, and amenities (fridge, microwave, hi-speed internet, TV, coffee maker) varying little from Fairfield to Fairfield (an accomplishment in and of itself!), the only other variable to truly distinguish one Inn from another is their personnel. When we arrived at the Denton TX Fairfield Inn at 9:30 pm, Christian greeted us with a smile, some friendly banter, and some of the quickest service I have ever seen anywhere! I had reserved the room earlier by iPhone, and asked Christian if I had received all applicable discounts. Sure enough, he found one to save us $5. He was proud of his hotel and treated us like we were long-lost relatives. We like that kind of service and we enjoy that kind of interaction.In the foyer were bowls of apples and bananas and a jar of fruit-infused water. Around the corner near the elevator was a table set with hot coffee. Christian let us know that if we wanted to use the pool or exercise room, he would see to it that it remained open for us. And of course, the business center -- two computers -- was available to us. One man was using one of the computers while we were there and had trouble logging on. Christian hustled (he didn't exactly run, but he was moving fast) to his side to help him through the process. And he did it all with a smile.The next morning, we were greeted the same way by friendly, helpful personnel. The breakfast manager was helpful, the manager on duty was interested in knowing how our stay was, and everyone just seemed to be happy to be there. What a nice way to start and end your day!More</t>
   </si>
   <si>
+    <t>Irish4love</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r116499188-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1944,6 +2214,9 @@
     <t>I am sorry to have to write this. I write several reviews for Trip Advisor because I meet my boyfriend a lot and we stay and eat different places. We have stayed here many times before. The first time, I left an item behind accidentally. The general manager wanted to make up for that and keep my business. She offered me a very good rate to come back in the future. Any type of room I would like. She even left the company and the staff still honored that rate. However, I had booked a room for this coming weekend. I did not realize that they had not given me this rate and there is a new general manager in place. She did not care to honor the previous agreement or keep my business. I booked a room with another hotel and will review it after August 14th. I am disappointed in the Fairfield in Denton and the Marriott cororation in general because of this experience.More</t>
   </si>
   <si>
+    <t>RadioBob</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r116081505-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1959,6 +2232,9 @@
     <t>This is where I stay twice a year when it's race time at Texas Motor Speedway. Good location and nice rooms.</t>
   </si>
   <si>
+    <t>Shaynamk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r113453152-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1977,6 +2253,9 @@
     <t>Stayed at this hotel with my two children (2&amp;5) for four nights and had a great time staying here while visiting family. The hotel appears to be very new and clean. The beds were very comfortable. My father checked in just prior to us and they were able to put us on the same floor very close to each other. We hadn't made prior arrangements. Good selection for breakfast that appealed to everyone in our party. The pool was small but was adequate for our needs. I also used the washer and dryer which was free. All you need is your own washing soap etc. Made travel with two little kids a lot easier.More</t>
   </si>
   <si>
+    <t>MaMa2sis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r107896109-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -1992,6 +2271,9 @@
     <t>This hotel is clean and neat. Priced reasonable. Would be a wonderful hotel for families to stay on!!</t>
   </si>
   <si>
+    <t>germfreak123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r105204720-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -2010,6 +2292,9 @@
     <t>April 2011</t>
   </si>
   <si>
+    <t>Leland033</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r99316691-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -2049,6 +2334,9 @@
     <t>I would like to say we have stayed here 3-4 times in the last year. In January of this year, 2011, we were there 2 nights. After the first night, the room did not get cleaned and my boots were left behind and stolen. I called and then wrote the inn. I was offered a lower fixed rate on any room at any time. I returned on February 12, 2011. I received top notch service, and though a staff member was no longer with the company that offered me the deal, it is a deal for as long as I come stay (my boyfriend also). The place is very nice, quiet, clean and has all we need in amenities. Thank you Fairfield for righting the situation and caring enough about future business and customer service to help!!! I reccomend this hotel to anyone!!!More</t>
   </si>
   <si>
+    <t>csml11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r93795305-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -2067,6 +2355,9 @@
     <t>January 2011</t>
   </si>
   <si>
+    <t>MrsGCooper</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r88955253-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -2094,6 +2385,9 @@
     <t>I so enjoyed my stay at the Fairfield Inn. I had a late flight and even though I arrived at 1:30 am, I was greeted with a smile. I was unable to secure a rental car at the airport so the guest services representative located the closest rental car companies and left the information for me for use when I got up the next day. She also attempted reserved a taxi in case I was unable to get a rental. The next morning, the manager on duty kindly took me where I needed to go. They truly went above and beyond to ensure I had no worries while staying in Denton. The accomodations were great. Very spacious rooms, great fitness center &amp; hot tub!!! Very pleased and will stay again!More</t>
   </si>
   <si>
+    <t>lovestotravel007</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r63007422-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -2112,6 +2406,9 @@
     <t>April 2010</t>
   </si>
   <si>
+    <t>Texasmom04</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r24761476-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -2133,6 +2430,9 @@
     <t>We just returned from staying at the Fairfield Inn in Denton and absolutely loved it.  We travel a lot and especially appreciated the unique set-up of the junior suites.  The sitting area with the sofa bed was a perfect little "get-away" for our eleven year old.  It looks very elegant when you enter the room and see the dark woods.  There was a CD player as well as a DVD player with two televisions.  It felt very deluxe.  The indoor swimming pool is small, but was lots of fun for the kids and the hot tub was perfect for the adults.  It is great that there is a door to an outdoor sitting area outside the pool room.  Great service, very accommodating front desk folks, delicious hot breakfast.  We have stayed at a lot of Holiday Inn Express hotels and this is certainly a step way above that.  Very quiet rooms.  We were on the third floor and even though we were near the elevator, we never heard any noise inside the room.More</t>
   </si>
   <si>
+    <t>Rebekajean</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r20275155-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -2154,6 +2454,9 @@
     <t>Our daughter attends TWU so we visit the area regularly.  We always enjoy our stay at the Fairfield by Marriott.  Although there are many other hotels in the area, and we have tried most of them over the last six years, the Fairfield Inn and Suites continues to be our first choice.  Our AARP price is under $100.00, we get free breakfast, the staff is friendly and helpful and the location is right off the freeway and very convenient to everything in Denton.  We opt for a top floor room away from the elevator and always sleep soundly.  The A/C does cycle off and on, but it has never kept us awake.  The beds are very comfortable, the pillows are plump and plentiful, the king room is clean and ample size, great water pressure in the shower and breakfast has a choice of  hot and cold drinks, hot breakfast sandwiches, cold cereals, fresh fruit, fresh hot oatmeal and make your own waffles.  If that’s not enough choice, Cracker Barrel is a few steps away.More</t>
   </si>
   <si>
+    <t>SoldierBoyCalifornia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r14263101-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -2172,6 +2475,9 @@
     <t>March 2008</t>
   </si>
   <si>
+    <t>Roberta072</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r11674284-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
   </si>
   <si>
@@ -2188,6 +2494,9 @@
   </si>
   <si>
     <t>December 2007</t>
+  </si>
+  <si>
+    <t>thompsons1</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d574133-r8085416-Fairfield_Inn_Suites_Denton-Denton_Texas.html</t>
@@ -2713,43 +3022,47 @@
       <c r="A2" t="n">
         <v>53570</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>136914</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -2767,50 +3080,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>53570</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>91135</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -2828,56 +3145,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="X3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>53570</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>136915</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -2895,50 +3216,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>53570</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>136916</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2950,56 +3275,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>53570</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>136917</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3013,50 +3342,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>53570</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>136918</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -3074,50 +3407,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>53570</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>136919</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="O8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -3135,50 +3472,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>53570</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>709</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="O9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3198,50 +3539,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>53570</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>136920</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3259,50 +3604,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>53570</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>136921</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="L11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -3320,50 +3669,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>53570</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>29129</v>
+      </c>
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3375,56 +3728,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="X12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="Y12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>53570</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>136922</v>
+      </c>
+      <c r="C13" t="s">
+        <v>133</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="J13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="K13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="L13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3442,50 +3799,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>53570</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>136923</v>
+      </c>
+      <c r="C14" t="s">
+        <v>140</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="J14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="K14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="L14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -3505,50 +3866,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>53570</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>136924</v>
+      </c>
+      <c r="C15" t="s">
+        <v>147</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="J15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="K15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="L15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3566,50 +3931,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>53570</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>136925</v>
+      </c>
+      <c r="C16" t="s">
+        <v>154</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="J16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="K16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="L16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="O16" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3623,50 +3992,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>53570</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>136926</v>
+      </c>
+      <c r="C17" t="s">
+        <v>160</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="J17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="K17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="L17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3684,50 +4057,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>53570</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>9589</v>
+      </c>
+      <c r="C18" t="s">
+        <v>168</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="J18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="K18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="L18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3747,50 +4124,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>53570</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>16053</v>
+      </c>
+      <c r="C19" t="s">
+        <v>175</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="J19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="K19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="L19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="O19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3804,50 +4185,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>53570</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>136927</v>
+      </c>
+      <c r="C20" t="s">
+        <v>183</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="J20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="K20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="L20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="O20" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3861,50 +4246,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>53570</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>136928</v>
+      </c>
+      <c r="C21" t="s">
+        <v>189</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="J21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="K21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="L21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -3920,56 +4309,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="X21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="Y21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>53570</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>136929</v>
+      </c>
+      <c r="C22" t="s">
+        <v>199</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="J22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="K22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="L22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="O22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -3987,41 +4380,45 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>53570</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>136930</v>
+      </c>
+      <c r="C23" t="s">
+        <v>206</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="J23" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="K23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="L23" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
@@ -4040,50 +4437,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>53570</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>41981</v>
+      </c>
+      <c r="C24" t="s">
+        <v>212</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="J24" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="K24" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="L24" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="O24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -4103,50 +4504,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>53570</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>136931</v>
+      </c>
+      <c r="C25" t="s">
+        <v>220</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="J25" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="K25" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="L25" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="O25" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -4164,50 +4569,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>53570</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>136932</v>
+      </c>
+      <c r="C26" t="s">
+        <v>227</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="J26" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="K26" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L26" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="O26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4221,50 +4630,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>53570</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>9976</v>
+      </c>
+      <c r="C27" t="s">
+        <v>234</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="J27" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="K27" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="L27" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="O27" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4278,50 +4691,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>53570</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>19502</v>
+      </c>
+      <c r="C28" t="s">
+        <v>241</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="J28" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="K28" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="L28" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="O28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4335,41 +4752,45 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>53570</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>358</v>
+      </c>
+      <c r="C29" t="s">
+        <v>247</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="J29" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="K29" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="L29" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
@@ -4388,50 +4809,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>53570</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>96220</v>
+      </c>
+      <c r="C30" t="s">
+        <v>253</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="J30" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="K30" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="L30" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="O30" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -4449,50 +4874,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>53570</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>8963</v>
+      </c>
+      <c r="C31" t="s">
+        <v>260</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="J31" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="K31" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="L31" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="O31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4506,50 +4935,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>53570</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>136933</v>
+      </c>
+      <c r="C32" t="s">
+        <v>268</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="J32" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="K32" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="L32" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="O32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4569,50 +5002,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>53570</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>136934</v>
+      </c>
+      <c r="C33" t="s">
+        <v>275</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="J33" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="K33" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="L33" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="O33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4630,41 +5067,45 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>53570</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>136935</v>
+      </c>
+      <c r="C34" t="s">
+        <v>282</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="J34" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="K34" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="L34" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
@@ -4683,50 +5124,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>53570</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>136936</v>
+      </c>
+      <c r="C35" t="s">
+        <v>288</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="J35" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="K35" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="L35" t="s">
+        <v>293</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
         <v>259</v>
       </c>
-      <c r="M35" t="n">
-        <v>5</v>
-      </c>
-      <c r="N35" t="s">
-        <v>230</v>
-      </c>
       <c r="O35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4740,50 +5185,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>53570</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>325</v>
+      </c>
+      <c r="C36" t="s">
+        <v>294</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="J36" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="K36" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="L36" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="O36" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4799,50 +5248,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>53570</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>35763</v>
+      </c>
+      <c r="C37" t="s">
+        <v>302</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="J37" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="K37" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="L37" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="O37" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4860,50 +5313,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>53570</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>136937</v>
+      </c>
+      <c r="C38" t="s">
+        <v>310</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="J38" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="K38" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="L38" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="O38" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4923,50 +5380,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>53570</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>54091</v>
+      </c>
+      <c r="C39" t="s">
+        <v>317</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="J39" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="K39" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="L39" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="O39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4986,41 +5447,45 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>53570</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>136938</v>
+      </c>
+      <c r="C40" t="s">
+        <v>324</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="J40" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="K40" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="L40" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
@@ -5039,50 +5504,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>53570</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>2594</v>
+      </c>
+      <c r="C41" t="s">
+        <v>331</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
       <c r="J41" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="K41" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="L41" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="O41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
@@ -5100,50 +5569,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>53570</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>36728</v>
+      </c>
+      <c r="C42" t="s">
+        <v>338</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="J42" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
       <c r="K42" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="L42" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="O42" t="s">
-        <v>303</v>
+        <v>344</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5161,50 +5634,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>53570</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>136939</v>
+      </c>
+      <c r="C43" t="s">
+        <v>345</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>304</v>
+        <v>346</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="J43" t="s">
-        <v>306</v>
+        <v>348</v>
       </c>
       <c r="K43" t="s">
-        <v>307</v>
+        <v>349</v>
       </c>
       <c r="L43" t="s">
-        <v>308</v>
+        <v>350</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="O43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="n">
@@ -5224,50 +5701,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>308</v>
+        <v>350</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>53570</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>60113</v>
+      </c>
+      <c r="C44" t="s">
+        <v>351</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>309</v>
+        <v>352</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="J44" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="K44" t="s">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="L44" t="s">
-        <v>313</v>
+        <v>356</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="O44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="n">
@@ -5287,50 +5768,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>53570</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>136940</v>
+      </c>
+      <c r="C45" t="s">
+        <v>359</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>316</v>
+        <v>360</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="J45" t="s">
-        <v>318</v>
+        <v>362</v>
       </c>
       <c r="K45" t="s">
-        <v>319</v>
+        <v>363</v>
       </c>
       <c r="L45" t="s">
-        <v>320</v>
+        <v>364</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="O45" t="s">
-        <v>303</v>
+        <v>344</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5344,50 +5829,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>320</v>
+        <v>364</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>53570</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>7473</v>
+      </c>
+      <c r="C46" t="s">
+        <v>365</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>321</v>
+        <v>366</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>322</v>
+        <v>367</v>
       </c>
       <c r="J46" t="s">
-        <v>323</v>
+        <v>368</v>
       </c>
       <c r="K46" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="L46" t="s">
-        <v>325</v>
+        <v>370</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>326</v>
+        <v>371</v>
       </c>
       <c r="O46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5401,50 +5890,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>325</v>
+        <v>370</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>53570</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>35763</v>
+      </c>
+      <c r="C47" t="s">
+        <v>302</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>327</v>
+        <v>372</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>328</v>
+        <v>373</v>
       </c>
       <c r="J47" t="s">
-        <v>329</v>
+        <v>374</v>
       </c>
       <c r="K47" t="s">
-        <v>330</v>
+        <v>375</v>
       </c>
       <c r="L47" t="s">
-        <v>331</v>
+        <v>376</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>332</v>
+        <v>377</v>
       </c>
       <c r="O47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="n">
@@ -5464,41 +5957,45 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>333</v>
+        <v>378</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>53570</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>15740</v>
+      </c>
+      <c r="C48" t="s">
+        <v>379</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>334</v>
+        <v>380</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>335</v>
+        <v>381</v>
       </c>
       <c r="J48" t="s">
-        <v>336</v>
+        <v>382</v>
       </c>
       <c r="K48" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="L48" t="s">
-        <v>338</v>
+        <v>384</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
@@ -5527,50 +6024,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>338</v>
+        <v>384</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>53570</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>136941</v>
+      </c>
+      <c r="C49" t="s">
+        <v>385</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>339</v>
+        <v>386</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>340</v>
+        <v>387</v>
       </c>
       <c r="J49" t="s">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="K49" t="s">
-        <v>342</v>
+        <v>389</v>
       </c>
       <c r="L49" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>332</v>
+        <v>377</v>
       </c>
       <c r="O49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5584,50 +6085,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>344</v>
+        <v>391</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>53570</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>136942</v>
+      </c>
+      <c r="C50" t="s">
+        <v>392</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>345</v>
+        <v>393</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>346</v>
+        <v>394</v>
       </c>
       <c r="J50" t="s">
-        <v>347</v>
+        <v>395</v>
       </c>
       <c r="K50" t="s">
-        <v>348</v>
+        <v>396</v>
       </c>
       <c r="L50" t="s">
-        <v>349</v>
+        <v>397</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>350</v>
+        <v>398</v>
       </c>
       <c r="O50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5647,50 +6152,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>53570</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>100682</v>
+      </c>
+      <c r="C51" t="s">
+        <v>400</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>352</v>
+        <v>401</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>353</v>
+        <v>402</v>
       </c>
       <c r="J51" t="s">
-        <v>354</v>
+        <v>403</v>
       </c>
       <c r="K51" t="s">
-        <v>355</v>
+        <v>404</v>
       </c>
       <c r="L51" t="s">
-        <v>356</v>
+        <v>405</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>350</v>
+        <v>398</v>
       </c>
       <c r="O51" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P51" t="n">
         <v>3</v>
@@ -5710,50 +6219,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>357</v>
+        <v>406</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>53570</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>136943</v>
+      </c>
+      <c r="C52" t="s">
+        <v>407</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>358</v>
+        <v>408</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>359</v>
+        <v>409</v>
       </c>
       <c r="J52" t="s">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="K52" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="L52" t="s">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>350</v>
+        <v>398</v>
       </c>
       <c r="O52" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -5771,41 +6284,45 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>362</v>
+        <v>412</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>53570</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>136944</v>
+      </c>
+      <c r="C53" t="s">
+        <v>413</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>363</v>
+        <v>414</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>364</v>
+        <v>415</v>
       </c>
       <c r="J53" t="s">
-        <v>365</v>
+        <v>416</v>
       </c>
       <c r="K53" t="s">
-        <v>366</v>
+        <v>417</v>
       </c>
       <c r="L53" t="s">
-        <v>367</v>
+        <v>418</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
@@ -5824,50 +6341,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>367</v>
+        <v>418</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>53570</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>5778</v>
+      </c>
+      <c r="C54" t="s">
+        <v>419</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>368</v>
+        <v>420</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>369</v>
+        <v>421</v>
       </c>
       <c r="J54" t="s">
-        <v>365</v>
+        <v>416</v>
       </c>
       <c r="K54" t="s">
-        <v>370</v>
+        <v>422</v>
       </c>
       <c r="L54" t="s">
-        <v>371</v>
+        <v>423</v>
       </c>
       <c r="M54" t="n">
         <v>2</v>
       </c>
       <c r="N54" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="O54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="n">
@@ -5885,56 +6406,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="X54" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
       <c r="Y54" t="s">
-        <v>375</v>
+        <v>427</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>53570</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>136945</v>
+      </c>
+      <c r="C55" t="s">
+        <v>428</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>376</v>
+        <v>429</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>377</v>
+        <v>430</v>
       </c>
       <c r="J55" t="s">
-        <v>378</v>
+        <v>431</v>
       </c>
       <c r="K55" t="s">
-        <v>379</v>
+        <v>432</v>
       </c>
       <c r="L55" t="s">
-        <v>380</v>
+        <v>433</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="O55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -5952,50 +6477,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>381</v>
+        <v>434</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>53570</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>136946</v>
+      </c>
+      <c r="C56" t="s">
+        <v>435</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>382</v>
+        <v>436</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>383</v>
+        <v>437</v>
       </c>
       <c r="J56" t="s">
-        <v>384</v>
+        <v>438</v>
       </c>
       <c r="K56" t="s">
-        <v>385</v>
+        <v>439</v>
       </c>
       <c r="L56" t="s">
-        <v>386</v>
+        <v>440</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="O56" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -6013,50 +6542,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>386</v>
+        <v>440</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>53570</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>136947</v>
+      </c>
+      <c r="C57" t="s">
+        <v>441</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>387</v>
+        <v>442</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="J57" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="K57" t="s">
-        <v>390</v>
+        <v>445</v>
       </c>
       <c r="L57" t="s">
-        <v>391</v>
+        <v>446</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="O57" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -6068,56 +6601,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>393</v>
+        <v>448</v>
       </c>
       <c r="X57" t="s">
-        <v>394</v>
+        <v>449</v>
       </c>
       <c r="Y57" t="s">
-        <v>395</v>
+        <v>450</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>53570</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>4396</v>
+      </c>
+      <c r="C58" t="s">
+        <v>451</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>396</v>
+        <v>452</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>397</v>
+        <v>453</v>
       </c>
       <c r="J58" t="s">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="K58" t="s">
-        <v>399</v>
+        <v>455</v>
       </c>
       <c r="L58" t="s">
-        <v>400</v>
+        <v>456</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>401</v>
+        <v>457</v>
       </c>
       <c r="O58" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="n">
@@ -6135,50 +6672,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>402</v>
+        <v>458</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>53570</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>136948</v>
+      </c>
+      <c r="C59" t="s">
+        <v>459</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>403</v>
+        <v>460</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>404</v>
+        <v>461</v>
       </c>
       <c r="J59" t="s">
-        <v>405</v>
+        <v>462</v>
       </c>
       <c r="K59" t="s">
-        <v>406</v>
+        <v>463</v>
       </c>
       <c r="L59" t="s">
-        <v>407</v>
+        <v>464</v>
       </c>
       <c r="M59" t="n">
         <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="O59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="n">
@@ -6196,56 +6737,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>408</v>
+        <v>465</v>
       </c>
       <c r="X59" t="s">
-        <v>409</v>
+        <v>466</v>
       </c>
       <c r="Y59" t="s">
-        <v>410</v>
+        <v>467</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>53570</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>35951</v>
+      </c>
+      <c r="C60" t="s">
+        <v>468</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>411</v>
+        <v>469</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>412</v>
+        <v>470</v>
       </c>
       <c r="J60" t="s">
-        <v>413</v>
+        <v>471</v>
       </c>
       <c r="K60" t="s">
-        <v>414</v>
+        <v>472</v>
       </c>
       <c r="L60" t="s">
-        <v>415</v>
+        <v>473</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="O60" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6265,50 +6810,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>415</v>
+        <v>473</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>53570</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>136949</v>
+      </c>
+      <c r="C61" t="s">
+        <v>474</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>416</v>
+        <v>475</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>417</v>
+        <v>476</v>
       </c>
       <c r="J61" t="s">
-        <v>418</v>
+        <v>477</v>
       </c>
       <c r="K61" t="s">
-        <v>419</v>
+        <v>478</v>
       </c>
       <c r="L61" t="s">
-        <v>420</v>
+        <v>479</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>421</v>
+        <v>480</v>
       </c>
       <c r="O61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -6322,41 +6871,45 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>420</v>
+        <v>479</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>53570</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>17818</v>
+      </c>
+      <c r="C62" t="s">
+        <v>481</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>422</v>
+        <v>482</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>423</v>
+        <v>483</v>
       </c>
       <c r="J62" t="s">
-        <v>424</v>
+        <v>484</v>
       </c>
       <c r="K62" t="s">
-        <v>425</v>
+        <v>485</v>
       </c>
       <c r="L62" t="s">
-        <v>426</v>
+        <v>486</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
@@ -6385,50 +6938,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>426</v>
+        <v>486</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>53570</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>136950</v>
+      </c>
+      <c r="C63" t="s">
+        <v>487</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>427</v>
+        <v>488</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>428</v>
+        <v>489</v>
       </c>
       <c r="J63" t="s">
-        <v>429</v>
+        <v>490</v>
       </c>
       <c r="K63" t="s">
-        <v>430</v>
+        <v>491</v>
       </c>
       <c r="L63" t="s">
-        <v>431</v>
+        <v>492</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>432</v>
+        <v>493</v>
       </c>
       <c r="O63" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P63" t="n">
         <v>4</v>
@@ -6452,41 +7009,45 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>433</v>
+        <v>494</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>53570</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>136951</v>
+      </c>
+      <c r="C64" t="s">
+        <v>495</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>434</v>
+        <v>496</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>435</v>
+        <v>497</v>
       </c>
       <c r="J64" t="s">
-        <v>436</v>
+        <v>498</v>
       </c>
       <c r="K64" t="s">
-        <v>437</v>
+        <v>499</v>
       </c>
       <c r="L64" t="s">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
@@ -6515,50 +7076,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>439</v>
+        <v>501</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>53570</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>136952</v>
+      </c>
+      <c r="C65" t="s">
+        <v>502</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>440</v>
+        <v>503</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>441</v>
+        <v>504</v>
       </c>
       <c r="J65" t="s">
-        <v>442</v>
+        <v>505</v>
       </c>
       <c r="K65" t="s">
-        <v>443</v>
+        <v>506</v>
       </c>
       <c r="L65" t="s">
-        <v>444</v>
+        <v>507</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>432</v>
+        <v>493</v>
       </c>
       <c r="O65" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6582,50 +7147,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>444</v>
+        <v>507</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>53570</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>34690</v>
+      </c>
+      <c r="C66" t="s">
+        <v>508</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>445</v>
+        <v>509</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>446</v>
+        <v>510</v>
       </c>
       <c r="J66" t="s">
-        <v>447</v>
+        <v>511</v>
       </c>
       <c r="K66" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
       <c r="L66" t="s">
-        <v>449</v>
+        <v>513</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>432</v>
+        <v>493</v>
       </c>
       <c r="O66" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6649,50 +7218,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>449</v>
+        <v>513</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>53570</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>136953</v>
+      </c>
+      <c r="C67" t="s">
+        <v>514</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>450</v>
+        <v>515</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>451</v>
+        <v>516</v>
       </c>
       <c r="J67" t="s">
-        <v>452</v>
+        <v>517</v>
       </c>
       <c r="K67" t="s">
-        <v>453</v>
+        <v>518</v>
       </c>
       <c r="L67" t="s">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>455</v>
+        <v>520</v>
       </c>
       <c r="O67" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6716,50 +7289,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>456</v>
+        <v>521</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>53570</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>136954</v>
+      </c>
+      <c r="C68" t="s">
+        <v>522</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>457</v>
+        <v>523</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>458</v>
+        <v>524</v>
       </c>
       <c r="J68" t="s">
-        <v>459</v>
+        <v>525</v>
       </c>
       <c r="K68" t="s">
-        <v>460</v>
+        <v>526</v>
       </c>
       <c r="L68" t="s">
-        <v>461</v>
+        <v>527</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>462</v>
+        <v>528</v>
       </c>
       <c r="O68" t="s">
-        <v>303</v>
+        <v>344</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6783,41 +7360,45 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>461</v>
+        <v>527</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>53570</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>136955</v>
+      </c>
+      <c r="C69" t="s">
+        <v>529</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>463</v>
+        <v>530</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>464</v>
+        <v>531</v>
       </c>
       <c r="J69" t="s">
-        <v>465</v>
+        <v>532</v>
       </c>
       <c r="K69" t="s">
-        <v>466</v>
+        <v>533</v>
       </c>
       <c r="L69" t="s">
-        <v>467</v>
+        <v>534</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
@@ -6844,56 +7425,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>468</v>
+        <v>535</v>
       </c>
       <c r="X69" t="s">
-        <v>469</v>
+        <v>536</v>
       </c>
       <c r="Y69" t="s">
-        <v>470</v>
+        <v>537</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>53570</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>4396</v>
+      </c>
+      <c r="C70" t="s">
+        <v>451</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>471</v>
+        <v>538</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>472</v>
+        <v>539</v>
       </c>
       <c r="J70" t="s">
-        <v>473</v>
+        <v>540</v>
       </c>
       <c r="K70" t="s">
-        <v>474</v>
+        <v>541</v>
       </c>
       <c r="L70" t="s">
-        <v>475</v>
+        <v>542</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>476</v>
+        <v>543</v>
       </c>
       <c r="O70" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -6917,50 +7502,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>477</v>
+        <v>544</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>53570</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>33828</v>
+      </c>
+      <c r="C71" t="s">
+        <v>545</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>478</v>
+        <v>546</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>479</v>
+        <v>547</v>
       </c>
       <c r="J71" t="s">
-        <v>480</v>
+        <v>548</v>
       </c>
       <c r="K71" t="s">
-        <v>481</v>
+        <v>549</v>
       </c>
       <c r="L71" t="s">
-        <v>482</v>
+        <v>550</v>
       </c>
       <c r="M71" t="n">
         <v>2</v>
       </c>
       <c r="N71" t="s">
-        <v>476</v>
+        <v>543</v>
       </c>
       <c r="O71" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P71" t="n">
         <v>3</v>
@@ -6984,50 +7573,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>483</v>
+        <v>551</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>53570</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>136956</v>
+      </c>
+      <c r="C72" t="s">
+        <v>552</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>484</v>
+        <v>553</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>485</v>
+        <v>554</v>
       </c>
       <c r="J72" t="s">
-        <v>486</v>
+        <v>555</v>
       </c>
       <c r="K72" t="s">
-        <v>487</v>
+        <v>556</v>
       </c>
       <c r="L72" t="s">
-        <v>488</v>
+        <v>557</v>
       </c>
       <c r="M72" t="n">
         <v>2</v>
       </c>
       <c r="N72" t="s">
-        <v>489</v>
+        <v>558</v>
       </c>
       <c r="O72" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P72" t="n">
         <v>1</v>
@@ -7049,56 +7642,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>490</v>
+        <v>559</v>
       </c>
       <c r="X72" t="s">
-        <v>491</v>
+        <v>560</v>
       </c>
       <c r="Y72" t="s">
-        <v>492</v>
+        <v>561</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>53570</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>136957</v>
+      </c>
+      <c r="C73" t="s">
+        <v>562</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>493</v>
+        <v>563</v>
       </c>
       <c r="G73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>494</v>
+        <v>564</v>
       </c>
       <c r="J73" t="s">
-        <v>495</v>
+        <v>565</v>
       </c>
       <c r="K73" t="s">
-        <v>496</v>
+        <v>566</v>
       </c>
       <c r="L73" t="s">
-        <v>497</v>
+        <v>567</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>498</v>
+        <v>568</v>
       </c>
       <c r="O73" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7122,50 +7719,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>497</v>
+        <v>567</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>53570</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>136958</v>
+      </c>
+      <c r="C74" t="s">
+        <v>569</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>499</v>
+        <v>570</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>500</v>
+        <v>571</v>
       </c>
       <c r="J74" t="s">
-        <v>501</v>
+        <v>572</v>
       </c>
       <c r="K74" t="s">
-        <v>502</v>
+        <v>573</v>
       </c>
       <c r="L74" t="s">
-        <v>503</v>
+        <v>574</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>498</v>
+        <v>568</v>
       </c>
       <c r="O74" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P74" t="n">
         <v>4</v>
@@ -7189,50 +7790,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>503</v>
+        <v>574</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>53570</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>136959</v>
+      </c>
+      <c r="C75" t="s">
+        <v>575</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>504</v>
+        <v>576</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>505</v>
+        <v>577</v>
       </c>
       <c r="J75" t="s">
-        <v>506</v>
+        <v>578</v>
       </c>
       <c r="K75" t="s">
-        <v>507</v>
+        <v>579</v>
       </c>
       <c r="L75" t="s">
-        <v>508</v>
+        <v>580</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>509</v>
+        <v>581</v>
       </c>
       <c r="O75" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7256,50 +7861,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>508</v>
+        <v>580</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>53570</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>9365</v>
+      </c>
+      <c r="C76" t="s">
+        <v>582</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>510</v>
+        <v>583</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>511</v>
+        <v>584</v>
       </c>
       <c r="J76" t="s">
-        <v>512</v>
+        <v>585</v>
       </c>
       <c r="K76" t="s">
-        <v>513</v>
+        <v>586</v>
       </c>
       <c r="L76" t="s">
-        <v>514</v>
+        <v>587</v>
       </c>
       <c r="M76" t="n">
         <v>2</v>
       </c>
       <c r="N76" t="s">
-        <v>515</v>
+        <v>588</v>
       </c>
       <c r="O76" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P76" t="n">
         <v>3</v>
@@ -7321,47 +7930,51 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>516</v>
+        <v>589</v>
       </c>
       <c r="X76" t="s">
-        <v>517</v>
+        <v>590</v>
       </c>
       <c r="Y76" t="s">
-        <v>518</v>
+        <v>591</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>53570</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>136960</v>
+      </c>
+      <c r="C77" t="s">
+        <v>592</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>519</v>
+        <v>593</v>
       </c>
       <c r="G77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>520</v>
+        <v>594</v>
       </c>
       <c r="J77" t="s">
-        <v>521</v>
+        <v>595</v>
       </c>
       <c r="K77" t="s">
-        <v>522</v>
+        <v>596</v>
       </c>
       <c r="L77" t="s">
-        <v>523</v>
+        <v>597</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
@@ -7390,50 +8003,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>523</v>
+        <v>597</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>53570</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>136961</v>
+      </c>
+      <c r="C78" t="s">
+        <v>598</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>524</v>
+        <v>599</v>
       </c>
       <c r="G78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I78" t="s">
-        <v>525</v>
+        <v>600</v>
       </c>
       <c r="J78" t="s">
-        <v>526</v>
+        <v>601</v>
       </c>
       <c r="K78" t="s">
-        <v>527</v>
+        <v>602</v>
       </c>
       <c r="L78" t="s">
-        <v>528</v>
+        <v>603</v>
       </c>
       <c r="M78" t="n">
         <v>2</v>
       </c>
       <c r="N78" t="s">
-        <v>529</v>
+        <v>604</v>
       </c>
       <c r="O78" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P78" t="s"/>
       <c r="Q78" t="s"/>
@@ -7445,56 +8062,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>530</v>
+        <v>605</v>
       </c>
       <c r="X78" t="s">
-        <v>531</v>
+        <v>606</v>
       </c>
       <c r="Y78" t="s">
-        <v>532</v>
+        <v>607</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>53570</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>136962</v>
+      </c>
+      <c r="C79" t="s">
+        <v>608</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>533</v>
+        <v>609</v>
       </c>
       <c r="G79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I79" t="s">
-        <v>534</v>
+        <v>610</v>
       </c>
       <c r="J79" t="s">
-        <v>535</v>
+        <v>611</v>
       </c>
       <c r="K79" t="s">
-        <v>536</v>
+        <v>612</v>
       </c>
       <c r="L79" t="s">
-        <v>537</v>
+        <v>613</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>538</v>
+        <v>614</v>
       </c>
       <c r="O79" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P79" t="n">
         <v>4</v>
@@ -7518,50 +8139,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>537</v>
+        <v>613</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>53570</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>136963</v>
+      </c>
+      <c r="C80" t="s">
+        <v>615</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>539</v>
+        <v>616</v>
       </c>
       <c r="G80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>540</v>
+        <v>617</v>
       </c>
       <c r="J80" t="s">
-        <v>541</v>
+        <v>618</v>
       </c>
       <c r="K80" t="s">
-        <v>542</v>
+        <v>619</v>
       </c>
       <c r="L80" t="s">
-        <v>543</v>
+        <v>620</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>544</v>
+        <v>621</v>
       </c>
       <c r="O80" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -7585,50 +8210,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>543</v>
+        <v>620</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>53570</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>136964</v>
+      </c>
+      <c r="C81" t="s">
+        <v>622</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>545</v>
+        <v>623</v>
       </c>
       <c r="G81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I81" t="s">
-        <v>546</v>
+        <v>624</v>
       </c>
       <c r="J81" t="s">
-        <v>547</v>
+        <v>625</v>
       </c>
       <c r="K81" t="s">
-        <v>548</v>
+        <v>626</v>
       </c>
       <c r="L81" t="s">
-        <v>549</v>
+        <v>627</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>550</v>
+        <v>628</v>
       </c>
       <c r="O81" t="s">
-        <v>303</v>
+        <v>344</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -7652,50 +8281,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>551</v>
+        <v>629</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>53570</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>136965</v>
+      </c>
+      <c r="C82" t="s">
+        <v>630</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>552</v>
+        <v>631</v>
       </c>
       <c r="G82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I82" t="s">
-        <v>553</v>
+        <v>632</v>
       </c>
       <c r="J82" t="s">
-        <v>554</v>
+        <v>633</v>
       </c>
       <c r="K82" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="L82" t="s">
-        <v>556</v>
+        <v>635</v>
       </c>
       <c r="M82" t="n">
         <v>2</v>
       </c>
       <c r="N82" t="s">
-        <v>557</v>
+        <v>636</v>
       </c>
       <c r="O82" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P82" t="n">
         <v>3</v>
@@ -7717,56 +8350,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>558</v>
+        <v>637</v>
       </c>
       <c r="X82" t="s">
-        <v>559</v>
+        <v>638</v>
       </c>
       <c r="Y82" t="s">
-        <v>560</v>
+        <v>639</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>53570</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>31308</v>
+      </c>
+      <c r="C83" t="s">
+        <v>640</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>561</v>
+        <v>641</v>
       </c>
       <c r="G83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I83" t="s">
-        <v>562</v>
+        <v>642</v>
       </c>
       <c r="J83" t="s">
-        <v>563</v>
+        <v>643</v>
       </c>
       <c r="K83" t="s">
-        <v>564</v>
+        <v>644</v>
       </c>
       <c r="L83" t="s">
-        <v>565</v>
+        <v>645</v>
       </c>
       <c r="M83" t="n">
         <v>2</v>
       </c>
       <c r="N83" t="s">
-        <v>566</v>
+        <v>646</v>
       </c>
       <c r="O83" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P83" t="n">
         <v>4</v>
@@ -7788,56 +8425,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>567</v>
+        <v>647</v>
       </c>
       <c r="X83" t="s">
-        <v>568</v>
+        <v>648</v>
       </c>
       <c r="Y83" t="s">
-        <v>569</v>
+        <v>649</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>53570</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>136966</v>
+      </c>
+      <c r="C84" t="s">
+        <v>650</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>570</v>
+        <v>651</v>
       </c>
       <c r="G84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I84" t="s">
-        <v>571</v>
+        <v>652</v>
       </c>
       <c r="J84" t="s">
-        <v>572</v>
+        <v>653</v>
       </c>
       <c r="K84" t="s">
-        <v>573</v>
+        <v>654</v>
       </c>
       <c r="L84" t="s">
-        <v>574</v>
+        <v>655</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>575</v>
+        <v>656</v>
       </c>
       <c r="O84" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P84" t="n">
         <v>4</v>
@@ -7861,50 +8502,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>574</v>
+        <v>655</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>53570</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>136967</v>
+      </c>
+      <c r="C85" t="s">
+        <v>657</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F85" t="s">
-        <v>576</v>
+        <v>658</v>
       </c>
       <c r="G85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I85" t="s">
-        <v>577</v>
+        <v>659</v>
       </c>
       <c r="J85" t="s">
-        <v>578</v>
+        <v>660</v>
       </c>
       <c r="K85" t="s">
-        <v>579</v>
+        <v>661</v>
       </c>
       <c r="L85" t="s">
-        <v>580</v>
+        <v>662</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>581</v>
+        <v>663</v>
       </c>
       <c r="O85" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -7928,50 +8573,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>580</v>
+        <v>662</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>53570</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>136968</v>
+      </c>
+      <c r="C86" t="s">
+        <v>664</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>582</v>
+        <v>665</v>
       </c>
       <c r="G86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I86" t="s">
-        <v>583</v>
+        <v>666</v>
       </c>
       <c r="J86" t="s">
-        <v>584</v>
+        <v>667</v>
       </c>
       <c r="K86" t="s">
-        <v>585</v>
+        <v>668</v>
       </c>
       <c r="L86" t="s">
-        <v>586</v>
+        <v>669</v>
       </c>
       <c r="M86" t="n">
         <v>4</v>
       </c>
       <c r="N86" t="s">
-        <v>581</v>
+        <v>663</v>
       </c>
       <c r="O86" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P86" t="n">
         <v>4</v>
@@ -7995,50 +8644,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>587</v>
+        <v>670</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>53570</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>5084</v>
+      </c>
+      <c r="C87" t="s">
+        <v>671</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>588</v>
+        <v>672</v>
       </c>
       <c r="G87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I87" t="s">
-        <v>589</v>
+        <v>673</v>
       </c>
       <c r="J87" t="s">
-        <v>590</v>
+        <v>674</v>
       </c>
       <c r="K87" t="s">
-        <v>591</v>
+        <v>675</v>
       </c>
       <c r="L87" t="s">
-        <v>592</v>
+        <v>676</v>
       </c>
       <c r="M87" t="n">
         <v>2</v>
       </c>
       <c r="N87" t="s">
-        <v>581</v>
+        <v>663</v>
       </c>
       <c r="O87" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P87" t="n">
         <v>3</v>
@@ -8062,50 +8715,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>592</v>
+        <v>676</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>53570</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>136969</v>
+      </c>
+      <c r="C88" t="s">
+        <v>677</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>593</v>
+        <v>678</v>
       </c>
       <c r="G88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I88" t="s">
-        <v>594</v>
+        <v>679</v>
       </c>
       <c r="J88" t="s">
-        <v>595</v>
+        <v>680</v>
       </c>
       <c r="K88" t="s">
-        <v>596</v>
+        <v>681</v>
       </c>
       <c r="L88" t="s">
-        <v>597</v>
+        <v>682</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>598</v>
+        <v>683</v>
       </c>
       <c r="O88" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P88" t="n">
         <v>4</v>
@@ -8129,50 +8786,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>597</v>
+        <v>682</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>53570</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>136970</v>
+      </c>
+      <c r="C89" t="s">
+        <v>684</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>599</v>
+        <v>685</v>
       </c>
       <c r="G89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I89" t="s">
-        <v>600</v>
+        <v>686</v>
       </c>
       <c r="J89" t="s">
-        <v>601</v>
+        <v>687</v>
       </c>
       <c r="K89" t="s">
-        <v>602</v>
+        <v>688</v>
       </c>
       <c r="L89" t="s">
-        <v>603</v>
+        <v>689</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>604</v>
+        <v>690</v>
       </c>
       <c r="O89" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8196,50 +8857,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>605</v>
+        <v>691</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>53570</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>136971</v>
+      </c>
+      <c r="C90" t="s">
+        <v>692</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F90" t="s">
-        <v>606</v>
+        <v>693</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I90" t="s">
-        <v>607</v>
+        <v>694</v>
       </c>
       <c r="J90" t="s">
-        <v>608</v>
+        <v>695</v>
       </c>
       <c r="K90" t="s">
-        <v>609</v>
+        <v>696</v>
       </c>
       <c r="L90" t="s">
-        <v>610</v>
+        <v>697</v>
       </c>
       <c r="M90" t="n">
         <v>3</v>
       </c>
       <c r="N90" t="s">
-        <v>611</v>
+        <v>698</v>
       </c>
       <c r="O90" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P90" t="n">
         <v>4</v>
@@ -8263,50 +8928,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>610</v>
+        <v>697</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>53570</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>136972</v>
+      </c>
+      <c r="C91" t="s">
+        <v>699</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>612</v>
+        <v>700</v>
       </c>
       <c r="G91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I91" t="s">
-        <v>613</v>
+        <v>701</v>
       </c>
       <c r="J91" t="s">
-        <v>614</v>
+        <v>702</v>
       </c>
       <c r="K91" t="s">
-        <v>615</v>
+        <v>703</v>
       </c>
       <c r="L91" t="s">
-        <v>616</v>
+        <v>704</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>617</v>
+        <v>705</v>
       </c>
       <c r="O91" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="P91" t="n">
         <v>4</v>
@@ -8330,50 +8999,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>616</v>
+        <v>704</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>53570</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>9700</v>
+      </c>
+      <c r="C92" t="s">
+        <v>706</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F92" t="s">
-        <v>618</v>
+        <v>707</v>
       </c>
       <c r="G92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I92" t="s">
-        <v>619</v>
+        <v>708</v>
       </c>
       <c r="J92" t="s">
-        <v>620</v>
+        <v>709</v>
       </c>
       <c r="K92" t="s">
-        <v>621</v>
+        <v>710</v>
       </c>
       <c r="L92" t="s">
-        <v>622</v>
+        <v>711</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>623</v>
+        <v>712</v>
       </c>
       <c r="O92" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -8393,50 +9066,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>624</v>
+        <v>713</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>53570</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>136973</v>
+      </c>
+      <c r="C93" t="s">
+        <v>714</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F93" t="s">
-        <v>625</v>
+        <v>715</v>
       </c>
       <c r="G93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I93" t="s">
-        <v>626</v>
+        <v>716</v>
       </c>
       <c r="J93" t="s">
-        <v>627</v>
+        <v>717</v>
       </c>
       <c r="K93" t="s">
-        <v>628</v>
+        <v>718</v>
       </c>
       <c r="L93" t="s">
-        <v>629</v>
+        <v>719</v>
       </c>
       <c r="M93" t="n">
         <v>2</v>
       </c>
       <c r="N93" t="s">
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="O93" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P93" t="n">
         <v>2</v>
@@ -8456,41 +9133,45 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>53570</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>136974</v>
+      </c>
+      <c r="C94" t="s">
+        <v>722</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F94" t="s">
-        <v>632</v>
+        <v>723</v>
       </c>
       <c r="G94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I94" t="s">
-        <v>633</v>
+        <v>724</v>
       </c>
       <c r="J94" t="s">
-        <v>634</v>
+        <v>725</v>
       </c>
       <c r="K94" t="s">
-        <v>635</v>
+        <v>726</v>
       </c>
       <c r="L94" t="s">
-        <v>636</v>
+        <v>727</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
@@ -8519,50 +9200,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>636</v>
+        <v>727</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>53570</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>136975</v>
+      </c>
+      <c r="C95" t="s">
+        <v>728</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>637</v>
+        <v>729</v>
       </c>
       <c r="G95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I95" t="s">
-        <v>638</v>
+        <v>730</v>
       </c>
       <c r="J95" t="s">
-        <v>639</v>
+        <v>731</v>
       </c>
       <c r="K95" t="s">
-        <v>640</v>
+        <v>732</v>
       </c>
       <c r="L95" t="s">
-        <v>641</v>
+        <v>733</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="O95" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -8582,41 +9267,45 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>642</v>
+        <v>734</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>53570</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>82088</v>
+      </c>
+      <c r="C96" t="s">
+        <v>735</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>643</v>
+        <v>736</v>
       </c>
       <c r="G96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I96" t="s">
-        <v>644</v>
+        <v>737</v>
       </c>
       <c r="J96" t="s">
-        <v>645</v>
+        <v>738</v>
       </c>
       <c r="K96" t="s">
-        <v>646</v>
+        <v>739</v>
       </c>
       <c r="L96" t="s">
-        <v>647</v>
+        <v>740</v>
       </c>
       <c r="M96" t="n">
         <v>4</v>
@@ -8645,50 +9334,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>647</v>
+        <v>740</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>53570</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>136976</v>
+      </c>
+      <c r="C97" t="s">
+        <v>741</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F97" t="s">
-        <v>648</v>
+        <v>742</v>
       </c>
       <c r="G97" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I97" t="s">
-        <v>649</v>
+        <v>743</v>
       </c>
       <c r="J97" t="s">
-        <v>650</v>
+        <v>744</v>
       </c>
       <c r="K97" t="s">
-        <v>651</v>
+        <v>745</v>
       </c>
       <c r="L97" t="s">
-        <v>652</v>
+        <v>746</v>
       </c>
       <c r="M97" t="n">
         <v>3</v>
       </c>
       <c r="N97" t="s">
-        <v>653</v>
+        <v>747</v>
       </c>
       <c r="O97" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -8712,50 +9405,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>652</v>
+        <v>746</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>53570</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>136977</v>
+      </c>
+      <c r="C98" t="s">
+        <v>748</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F98" t="s">
-        <v>654</v>
+        <v>749</v>
       </c>
       <c r="G98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I98" t="s">
-        <v>655</v>
+        <v>750</v>
       </c>
       <c r="J98" t="s">
-        <v>656</v>
+        <v>751</v>
       </c>
       <c r="K98" t="s">
-        <v>657</v>
+        <v>752</v>
       </c>
       <c r="L98" t="s">
-        <v>658</v>
+        <v>753</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>659</v>
+        <v>754</v>
       </c>
       <c r="O98" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -8777,50 +9474,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>658</v>
+        <v>753</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>53570</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>136972</v>
+      </c>
+      <c r="C99" t="s">
+        <v>714</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F99" t="s">
-        <v>660</v>
+        <v>755</v>
       </c>
       <c r="G99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I99" t="s">
-        <v>661</v>
+        <v>756</v>
       </c>
       <c r="J99" t="s">
-        <v>662</v>
+        <v>757</v>
       </c>
       <c r="K99" t="s">
-        <v>663</v>
+        <v>758</v>
       </c>
       <c r="L99" t="s">
-        <v>664</v>
+        <v>759</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>665</v>
+        <v>760</v>
       </c>
       <c r="O99" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -8844,50 +9545,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>666</v>
+        <v>761</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>53570</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>136978</v>
+      </c>
+      <c r="C100" t="s">
+        <v>762</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F100" t="s">
-        <v>667</v>
+        <v>763</v>
       </c>
       <c r="G100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I100" t="s">
-        <v>668</v>
+        <v>764</v>
       </c>
       <c r="J100" t="s">
-        <v>669</v>
+        <v>765</v>
       </c>
       <c r="K100" t="s">
-        <v>670</v>
+        <v>766</v>
       </c>
       <c r="L100" t="s">
-        <v>671</v>
+        <v>767</v>
       </c>
       <c r="M100" t="n">
         <v>5</v>
       </c>
       <c r="N100" t="s">
-        <v>672</v>
+        <v>768</v>
       </c>
       <c r="O100" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -8911,50 +9616,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>671</v>
+        <v>767</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>53570</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>136979</v>
+      </c>
+      <c r="C101" t="s">
+        <v>769</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F101" t="s">
-        <v>673</v>
+        <v>770</v>
       </c>
       <c r="G101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I101" t="s">
-        <v>674</v>
+        <v>771</v>
       </c>
       <c r="J101" t="s">
-        <v>675</v>
+        <v>772</v>
       </c>
       <c r="K101" t="s">
-        <v>676</v>
+        <v>773</v>
       </c>
       <c r="L101" t="s">
-        <v>677</v>
+        <v>774</v>
       </c>
       <c r="M101" t="n">
         <v>5</v>
       </c>
       <c r="N101" t="s">
-        <v>678</v>
+        <v>775</v>
       </c>
       <c r="O101" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P101" t="n">
         <v>4</v>
@@ -8976,56 +9685,60 @@
         <v>0</v>
       </c>
       <c r="W101" t="s">
-        <v>679</v>
+        <v>776</v>
       </c>
       <c r="X101" t="s">
-        <v>680</v>
+        <v>777</v>
       </c>
       <c r="Y101" t="s">
-        <v>681</v>
+        <v>778</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>53570</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>136980</v>
+      </c>
+      <c r="C102" t="s">
+        <v>779</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F102" t="s">
-        <v>682</v>
+        <v>780</v>
       </c>
       <c r="G102" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I102" t="s">
-        <v>683</v>
+        <v>781</v>
       </c>
       <c r="J102" t="s">
-        <v>684</v>
+        <v>782</v>
       </c>
       <c r="K102" t="s">
-        <v>685</v>
+        <v>783</v>
       </c>
       <c r="L102" t="s">
-        <v>686</v>
+        <v>784</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
       </c>
       <c r="N102" t="s">
-        <v>687</v>
+        <v>785</v>
       </c>
       <c r="O102" t="s">
-        <v>303</v>
+        <v>344</v>
       </c>
       <c r="P102" t="n">
         <v>4</v>
@@ -9049,50 +9762,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>686</v>
+        <v>784</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>53570</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>136981</v>
+      </c>
+      <c r="C103" t="s">
+        <v>786</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F103" t="s">
-        <v>688</v>
+        <v>787</v>
       </c>
       <c r="G103" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I103" t="s">
-        <v>689</v>
+        <v>788</v>
       </c>
       <c r="J103" t="s">
-        <v>690</v>
+        <v>789</v>
       </c>
       <c r="K103" t="s">
-        <v>691</v>
+        <v>790</v>
       </c>
       <c r="L103" t="s">
-        <v>692</v>
+        <v>791</v>
       </c>
       <c r="M103" t="n">
         <v>5</v>
       </c>
       <c r="N103" t="s">
-        <v>693</v>
+        <v>792</v>
       </c>
       <c r="O103" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P103" t="n">
         <v>5</v>
@@ -9116,50 +9833,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>694</v>
+        <v>793</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>53570</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>46274</v>
+      </c>
+      <c r="C104" t="s">
+        <v>794</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F104" t="s">
-        <v>695</v>
+        <v>795</v>
       </c>
       <c r="G104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I104" t="s">
-        <v>696</v>
+        <v>796</v>
       </c>
       <c r="J104" t="s">
-        <v>697</v>
+        <v>797</v>
       </c>
       <c r="K104" t="s">
-        <v>698</v>
+        <v>798</v>
       </c>
       <c r="L104" t="s">
-        <v>699</v>
+        <v>799</v>
       </c>
       <c r="M104" t="n">
         <v>4</v>
       </c>
       <c r="N104" t="s">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="O104" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P104" t="n">
         <v>4</v>
@@ -9183,50 +9904,54 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>701</v>
+        <v>801</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>53570</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>136982</v>
+      </c>
+      <c r="C105" t="s">
+        <v>802</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F105" t="s">
-        <v>702</v>
+        <v>803</v>
       </c>
       <c r="G105" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I105" t="s">
-        <v>703</v>
+        <v>804</v>
       </c>
       <c r="J105" t="s">
-        <v>704</v>
+        <v>805</v>
       </c>
       <c r="K105" t="s">
-        <v>705</v>
+        <v>806</v>
       </c>
       <c r="L105" t="s">
-        <v>706</v>
+        <v>807</v>
       </c>
       <c r="M105" t="n">
         <v>5</v>
       </c>
       <c r="N105" t="s">
-        <v>707</v>
+        <v>808</v>
       </c>
       <c r="O105" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P105" t="n">
         <v>4</v>
@@ -9250,50 +9975,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>706</v>
+        <v>807</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>53570</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>136983</v>
+      </c>
+      <c r="C106" t="s">
+        <v>809</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F106" t="s">
-        <v>708</v>
+        <v>810</v>
       </c>
       <c r="G106" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I106" t="s">
-        <v>709</v>
+        <v>811</v>
       </c>
       <c r="J106" t="s">
-        <v>710</v>
+        <v>812</v>
       </c>
       <c r="K106" t="s">
-        <v>711</v>
+        <v>813</v>
       </c>
       <c r="L106" t="s">
-        <v>712</v>
+        <v>814</v>
       </c>
       <c r="M106" t="n">
         <v>5</v>
       </c>
       <c r="N106" t="s">
-        <v>713</v>
+        <v>815</v>
       </c>
       <c r="O106" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P106" t="n">
         <v>5</v>
@@ -9317,50 +10046,54 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>712</v>
+        <v>814</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>53570</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>136984</v>
+      </c>
+      <c r="C107" t="s">
+        <v>816</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F107" t="s">
-        <v>714</v>
+        <v>817</v>
       </c>
       <c r="G107" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I107" t="s">
-        <v>715</v>
+        <v>818</v>
       </c>
       <c r="J107" t="s">
-        <v>716</v>
+        <v>819</v>
       </c>
       <c r="K107" t="s">
-        <v>717</v>
+        <v>820</v>
       </c>
       <c r="L107" t="s">
-        <v>718</v>
+        <v>821</v>
       </c>
       <c r="M107" t="n">
         <v>5</v>
       </c>
       <c r="N107" t="s">
-        <v>719</v>
+        <v>822</v>
       </c>
       <c r="O107" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="P107" t="n">
         <v>4</v>
@@ -9384,7 +10117,7 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>720</v>
+        <v>823</v>
       </c>
     </row>
   </sheetData>
